--- a/Dashboards/PRO.xlsx
+++ b/Dashboards/PRO.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -121,7 +121,7 @@
     <x:t>0,0 (0/0)</x:t>
   </x:si>
   <x:si>
-    <x:t>2,8 (304/107)</x:t>
+    <x:t>2,8 (312/112)</x:t>
   </x:si>
   <x:si>
     <x:t>2,5 (70/28)</x:t>
@@ -131,6 +131,9 @@
   </x:si>
   <x:si>
     <x:t>3,1 (232/76)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,6 (8/5)</x:t>
   </x:si>
   <x:si>
     <x:t>0,7 (23/32)</x:t>
@@ -622,10 +625,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="15" t="n">
-        <x:v>668.958044642859</x:v>
+        <x:v>686.01404464286</x:v>
       </x:c>
       <x:c r="D2" s="15" t="n">
-        <x:v>189545.633166667</x:v>
+        <x:v>189784.417166667</x:v>
       </x:c>
       <x:c r="E2" s="16" t="n">
         <x:v>0</x:v>
@@ -667,7 +670,7 @@
         <x:v>7338.32020833332</x:v>
       </x:c>
       <x:c r="R2" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>238.784000000014</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:146" x14ac:dyDescent="0.25">
@@ -1377,7 +1380,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="Q3" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:36">
@@ -1385,7 +1388,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D4" s="19" t="s">
         <x:v>23</x:v>
@@ -1412,10 +1415,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L4" s="19" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="M4" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N4" s="19" t="s">
         <x:v>23</x:v>
@@ -1438,46 +1441,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q5" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:36">
@@ -1488,46 +1491,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q6" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:36">
@@ -1538,46 +1541,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q7" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:36">
@@ -1588,46 +1591,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q8" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:36">
@@ -1638,46 +1641,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q9" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:36">
@@ -1688,46 +1691,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q10" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:36">
@@ -1738,46 +1741,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q11" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:36">
@@ -1788,46 +1791,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q12" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:36">
@@ -1838,46 +1841,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q13" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:36">
@@ -1888,46 +1891,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q14" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:36">
@@ -1988,46 +1991,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q16" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:36">
@@ -2059,25 +2062,25 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="K17" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L17" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M17" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N17" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O17" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P17" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q17" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:36">
@@ -2088,46 +2091,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q18" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:36">
@@ -2138,46 +2141,46 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="K19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="L19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="Q19" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
